--- a/customerSurveyResult.xlsx
+++ b/customerSurveyResult.xlsx
@@ -2,23 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johncaballero\Downloads\Excel-Project-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johncaballero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7A9900-47B7-4B9C-A529-BCD6D2B2F2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77697704-911E-42FC-B21C-D0D25D416ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{70A7E47D-1E1C-44C5-89A3-27F4D14B60F6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{70A7E47D-1E1C-44C5-89A3-27F4D14B60F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
     <sheet name="Working Sheet" sheetId="2" r:id="rId2"/>
-    <sheet name="Pivot Table" sheetId="7" r:id="rId3"/>
-    <sheet name="Dashboard" sheetId="8" r:id="rId4"/>
+    <sheet name="Correlation" sheetId="10" r:id="rId3"/>
+    <sheet name="Pivot Table" sheetId="7" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Correlation!$A$1:$D$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Data'!$A$1:$AI$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Working Sheet'!$A$1:$AH$103</definedName>
     <definedName name="NativeTimeline_Response_Date">#N/A</definedName>
@@ -29,15 +31,15 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="72" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
         <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -45,7 +47,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
       <x15:timelineCacheRefs>
-        <x15:timelineCacheRef r:id="rId10"/>
+        <x15:timelineCacheRef r:id="rId11"/>
       </x15:timelineCacheRefs>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="228">
   <si>
     <t>Creation Date</t>
   </si>
@@ -746,15 +748,21 @@
   <si>
     <t>Average NPS</t>
   </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Standardize</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +780,15 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -794,22 +811,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -834,58 +899,11 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="NPS" pivot="0" table="0" count="9" xr9:uid="{44E622E1-5C5F-4F10-8450-24F961DB39DF}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -893,7 +911,7 @@
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{A0A4C193-F2C1-4fcb-8827-314CF55A85BB}">
-      <x15:dxfs count="13">
+      <x15:dxfs count="7">
         <dxf>
           <fill>
             <patternFill patternType="solid">
@@ -994,46 +1012,6 @@
             <horizontal/>
           </border>
         </dxf>
-        <dxf>
-          <font>
-            <sz val="9"/>
-            <color theme="1" tint="0.499984740745262"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="9"/>
-            <color theme="1" tint="0.499984740745262"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="9"/>
-            <color theme="1" tint="0.499984740745262"/>
-          </font>
-        </dxf>
-        <dxf>
-          <font>
-            <sz val="10"/>
-            <color theme="1" tint="0.499984740745262"/>
-          </font>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="0" tint="-0.14999847407452621"/>
-              <bgColor theme="0" tint="-0.14999847407452621"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill patternType="solid">
-              <fgColor theme="0"/>
-              <bgColor theme="0"/>
-            </patternFill>
-          </fill>
-        </dxf>
       </x15:dxfs>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
@@ -1056,6 +1034,1606 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Correlation!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full Resolution Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5567200172352685E-3"/>
+                  <c:y val="-9.5737823471862937E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Correlation!$A$2:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Correlation!$B$2:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>12935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9970</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7359</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24271</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7784</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13271</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17793</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5312</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2791</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10120</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8778</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13309</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7495</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27576</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3091</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19160</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9473</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13275</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8654</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13109</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13110</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1676</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2264</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15541</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17886</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14108</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14743</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13804</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1419</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6434</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28756</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13416</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19597</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1455</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6172</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15022</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20321</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4382</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8697</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13591</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE67-41C8-A946-50A96DEB3F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1569379456"/>
+        <c:axId val="1569379936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1569379456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1569379936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1569379936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1569379456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Correlation!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standardize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5557524059492563E-2"/>
+                  <c:y val="-0.23599978076986317"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Correlation!$A$2:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Correlation!$D$2:$D$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>0.66541975307387402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55066240440236569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.75317640816328102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.90224530453388518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.2880405172702121E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28439451364383822</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0020280213071966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.8053505218929925</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.1139010859306222E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1221826920886748</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.476748586820318E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.167674407015566</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.9869318585927026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.98461872054557253</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.97343855331777718</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.86767674149621921</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16051312045309474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70859832995363514</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2897100104604216</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.31419420988570862</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.97690826038847234</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.95930270969642684</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.3337724269401726E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.98564678189985255</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.63816204415320277</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.98603230490770755</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.30367066403658877</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.13121337185611393</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.98281961317558253</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71348162138646531</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.3661967836545729E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.92216399327306076</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5469005390756121</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.75767417658825609</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.59960974336770168</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.98461872054557253</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.98127752114416245</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.92319205462734077</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4653799943730215</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22052620200919143</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.70911236063077521</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.11527842086477347</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.84480237636348865</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.95403389525574167</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.68778008752946462</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.98487573588414257</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68790859519874958</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.78144809540598181</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.70588558586639971</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0003107392305934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.3016612237039269</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.98718887393127264</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.81615924914518323</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.89776161914116048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.98718887393127264</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.77709291768254207</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.81447456641222771</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.17000860494793457</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.6985395888319164</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.72723194199996077</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.5215378458505679</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.80984829031796757</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.95069269585433158</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.87988497007829458</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.84390282267849359</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.20367761430060552</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.93361525887167651</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.98063498279773742</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6145773984129106</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.43370634232076199</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.12080425064402862</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.74972078412483634</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.96328644744426195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FF6-4080-8106-2962744686E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="153012112"/>
+        <c:axId val="153013072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="153012112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153013072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="153013072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153012112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1909,7 +3487,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2823,7 +4401,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3835,6 +5413,2040 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[customerSurveyResult.xlsx]Pivot Table!PivotTable19</c:name>
+    <c:fmtId val="10"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FRT vs NPS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot Table'!$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Full Resolution Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot Table'!$A$48:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Site 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Site 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot Table'!$B$48:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5215.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8637.2407407407409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E13-4379-8985-C4E1CB41A2A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot Table'!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Net Promoter Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot Table'!$A$48:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Site 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Site 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot Table'!$C$48:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>39.583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.888888888888886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E13-4379-8985-C4E1CB41A2A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="80144544"/>
+        <c:axId val="2066167584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80144544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2066167584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2066167584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80144544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[customerSurveyResult.xlsx]Pivot Table!PivotTable1</c:name>
+    <c:fmtId val="9"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FRT per Contact Method</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot Table'!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot Table'!$A$54:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Salesforce</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Email</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WhatsApp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot Table'!$B$54:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20845.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10724.190476190477</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5647.9444444444443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>969.5454545454545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A92D-4A28-A9D7-599B080A6B59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="79998352"/>
+        <c:axId val="79998832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="79998352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Contact Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79998832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79998832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79998352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[customerSurveyResult.xlsx]Pivot Table!PivotTable3</c:name>
+    <c:fmtId val="12"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FRT per Driver</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot Table'!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot Table'!$A$62:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Experience Management</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Audio Issues</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Power Issues</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Device Usage</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tracking and Input</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Questions</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Experience Usage</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hardware Order</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Digital Order</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Display/Visual Issues</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Parent-Managed Account</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Meta Account</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot Table'!$B$62:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3837.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3893.5384615384614</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4791.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5968.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7206.416666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7418.5555555555557</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7646.166666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18843.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18893.166666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A184-4CCA-8D7E-0E6E9A8D4F29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="147073424"/>
+        <c:axId val="139392128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="147073424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="139392128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="139392128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147073424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3955,7 +7567,1239 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4458,7 +9302,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4963,7 +9807,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5457,7 +10301,1593 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>74612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>393699</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8601080E-216B-689E-FEFE-7291F9182C03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>579437</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>74612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>274637</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>96837</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78127FDC-B0A9-D35E-5D1B-5C1EA9C5ADC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5505,7 +11935,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5524,7 +11954,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10363200" cy="1447800"/>
+          <a:ext cx="19968882" cy="1434353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5652,8 +12082,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Survey">
@@ -5676,7 +12106,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5730,8 +12160,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Contact Method">
@@ -5754,7 +12184,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5808,8 +12238,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Location Name ">
@@ -5832,7 +12262,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5883,11 +12313,11 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Solved Status">
@@ -5910,7 +12340,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5964,8 +12394,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Response Date">
@@ -5983,12 +12413,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Response Date"/>
+              <tsle:timeslicer name="Response Date"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6028,6 +12458,284 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>294527</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle: Rounded Corners 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1735FE62-CB0B-89B5-1DF6-BF7EF92FEA61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="294527" y="8426824"/>
+          <a:ext cx="5756649" cy="1661646"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>INSIGHTS:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Site 1 outperforms site 2 by 0.7 points in NPS driven largely by superior WhatsApp Handling. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06BBD457-DCD4-4E82-8619-B03159C7C40D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB01CF0C-484E-4342-B747-DFA66924A33E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>598766</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>598766</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA26D60-ECDF-4842-8219-3B2292C70C91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>256054</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle: Rounded Corners 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BC72B4-8F6B-711D-2BB2-0AF06B90075F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14173760" y="8426824"/>
+          <a:ext cx="5795122" cy="896470"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Data Quality: To ensure data integrity, I implemented an automated outlier detection system for Full Time Resolution (FRT). By calculating the mean and standard deviation, I was able to categorize cases as 'Normal' or 'Outlier', allowing for a more accurate representation of agent performance without being skewed by extreme technical edge cases.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6040,10 +12748,10 @@
     <cacheField name="Case ID" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20125106" maxValue="20164244"/>
     </cacheField>
-    <cacheField name="Creation Date" numFmtId="166">
+    <cacheField name="Creation Date" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2026-01-26T09:04:33" maxDate="2026-02-02T09:07:16"/>
     </cacheField>
-    <cacheField name="Response Date" numFmtId="166">
+    <cacheField name="Response Date" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2026-02-01T00:44:43" maxDate="2026-02-02T09:48:29" count="101">
         <d v="2026-02-02T09:48:29"/>
         <d v="2026-02-02T09:41:18"/>
@@ -6148,7 +12856,7 @@
         <d v="2026-02-01T00:44:43"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Survey" numFmtId="166">
+    <cacheField name="Survey" numFmtId="164">
       <sharedItems count="3">
         <s v="Detractor"/>
         <s v="Promoter"/>
@@ -6161,7 +12869,7 @@
     <cacheField name="Likelihood to Recommend" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="10"/>
     </cacheField>
-    <cacheField name="Ticket Solved Date" numFmtId="166">
+    <cacheField name="Ticket Solved Date" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2026-01-25T23:54:29" maxDate="2026-02-02T16:57:22"/>
     </cacheField>
     <cacheField name="Language" numFmtId="0">
@@ -6245,7 +12953,7 @@
     <cacheField name="Agent Start Date" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Clean Agent Start Date " numFmtId="166">
+    <cacheField name="Clean Agent Start Date " numFmtId="164">
       <sharedItems/>
     </cacheField>
     <cacheField name="Agent Type" numFmtId="0">
@@ -9956,12 +16664,519 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F072363-92A5-4537-8408-69F2539E6CDF}" name="PivotTable19" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A263BE35-1B5D-4252-8B01-926F74DFF1AA}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="13">
+  <location ref="A61:B74" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="34">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0">
+      <items count="102">
+        <item x="100"/>
+        <item x="99"/>
+        <item x="98"/>
+        <item x="97"/>
+        <item x="96"/>
+        <item x="95"/>
+        <item x="94"/>
+        <item x="93"/>
+        <item x="92"/>
+        <item x="91"/>
+        <item x="90"/>
+        <item x="89"/>
+        <item x="88"/>
+        <item x="87"/>
+        <item x="86"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="83"/>
+        <item x="82"/>
+        <item x="81"/>
+        <item x="80"/>
+        <item x="79"/>
+        <item x="78"/>
+        <item x="77"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="74"/>
+        <item x="73"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="70"/>
+        <item x="69"/>
+        <item x="68"/>
+        <item x="67"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="63"/>
+        <item x="62"/>
+        <item x="61"/>
+        <item x="60"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="57"/>
+        <item x="56"/>
+        <item x="55"/>
+        <item x="54"/>
+        <item x="53"/>
+        <item x="52"/>
+        <item x="51"/>
+        <item x="50"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="1" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
+      <items count="13">
+        <item x="11"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="1" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Full Resolution Time" fld="13" subtotal="average" baseField="30" baseItem="1" numFmtId="1"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E36C8A6C-97C4-44A2-BB1D-BFD2014546AC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A53:B58" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="34">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0">
+      <items count="102">
+        <item x="100"/>
+        <item x="99"/>
+        <item x="98"/>
+        <item x="97"/>
+        <item x="96"/>
+        <item x="95"/>
+        <item x="94"/>
+        <item x="93"/>
+        <item x="92"/>
+        <item x="91"/>
+        <item x="90"/>
+        <item x="89"/>
+        <item x="88"/>
+        <item x="87"/>
+        <item x="86"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="83"/>
+        <item x="82"/>
+        <item x="81"/>
+        <item x="80"/>
+        <item x="79"/>
+        <item x="78"/>
+        <item x="77"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="74"/>
+        <item x="73"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="70"/>
+        <item x="69"/>
+        <item x="68"/>
+        <item x="67"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="63"/>
+        <item x="62"/>
+        <item x="61"/>
+        <item x="60"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="57"/>
+        <item x="56"/>
+        <item x="55"/>
+        <item x="54"/>
+        <item x="53"/>
+        <item x="52"/>
+        <item x="51"/>
+        <item x="50"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="1" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="1" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Full Resolution Time" fld="13" subtotal="average" baseField="30" baseItem="1" numFmtId="1"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="9" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F072363-92A5-4537-8408-69F2539E6CDF}" name="PivotTable19" cacheId="0" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="17">
   <location ref="A47:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="34">
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0">
       <items count="102">
         <item x="100"/>
         <item x="99"/>
@@ -10077,7 +17292,7 @@
     </pivotField>
     <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0">
@@ -10153,8 +17368,28 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Average of Full Resolution Time" fld="13" subtotal="average" baseField="30" baseItem="1" numFmtId="1"/>
-    <dataField name="Average of Net Promoter Score" fld="4" subtotal="average" baseField="30" baseItem="1" numFmtId="1"/>
+    <dataField name="Average of Net Promoter Score" fld="4" subtotal="average" baseField="30" baseItem="0" numFmtId="2"/>
   </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="10" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -10167,13 +17402,13 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7358ACE-0B62-4C52-8695-13F66E70158F}" name="PivotTable18" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="11">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7358ACE-0B62-4C52-8695-13F66E70158F}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="11">
   <location ref="A20:D45" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0">
       <items count="102">
         <item x="100"/>
         <item x="99"/>
@@ -10289,7 +17524,7 @@
     </pivotField>
     <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0">
@@ -10529,13 +17764,13 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{357AACDA-2D6B-4224-A5C0-D3F3915D44BD}" name="PivotTable17" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{357AACDA-2D6B-4224-A5C0-D3F3915D44BD}" name="PivotTable17" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
   <location ref="A7:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0">
       <items count="102">
         <item x="100"/>
         <item x="99"/>
@@ -10651,7 +17886,7 @@
     </pivotField>
     <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -10785,13 +18020,13 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{026E0F80-63A9-40F1-9743-91EABD7B732B}" name="PivotTable16" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{026E0F80-63A9-40F1-9743-91EABD7B732B}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
   <location ref="A2:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="34">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0">
       <items count="102">
         <item x="100"/>
         <item x="99"/>
@@ -10907,7 +18142,7 @@
     </pivotField>
     <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0">
@@ -11024,6 +18259,8 @@
     <pivotTable tabId="7" name="PivotTable17"/>
     <pivotTable tabId="7" name="PivotTable18"/>
     <pivotTable tabId="7" name="PivotTable19"/>
+    <pivotTable tabId="7" name="PivotTable1"/>
+    <pivotTable tabId="7" name="PivotTable3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="709699232">
@@ -11044,6 +18281,8 @@
     <pivotTable tabId="7" name="PivotTable17"/>
     <pivotTable tabId="7" name="PivotTable18"/>
     <pivotTable tabId="7" name="PivotTable19"/>
+    <pivotTable tabId="7" name="PivotTable1"/>
+    <pivotTable tabId="7" name="PivotTable3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="709699232">
@@ -11065,6 +18304,8 @@
     <pivotTable tabId="7" name="PivotTable17"/>
     <pivotTable tabId="7" name="PivotTable18"/>
     <pivotTable tabId="7" name="PivotTable19"/>
+    <pivotTable tabId="7" name="PivotTable1"/>
+    <pivotTable tabId="7" name="PivotTable3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="709699232">
@@ -11084,6 +18325,8 @@
     <pivotTable tabId="7" name="PivotTable17"/>
     <pivotTable tabId="7" name="PivotTable18"/>
     <pivotTable tabId="7" name="PivotTable19"/>
+    <pivotTable tabId="7" name="PivotTable1"/>
+    <pivotTable tabId="7" name="PivotTable3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="709699232">
@@ -11106,20 +18349,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26585995-26B2-433D-A74A-553912671CF0}" name="survey_data" displayName="survey_data" ref="A1:AH103" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26585995-26B2-433D-A74A-553912671CF0}" name="survey_data" displayName="survey_data" ref="A1:AH103" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:AH103" xr:uid="{034C1B80-38A3-46F3-ACD5-0F2C2D6620EE}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{C35B185F-DEE3-4F93-808E-10B957D0EA57}" name="Case ID"/>
-    <tableColumn id="2" xr3:uid="{5E8CA1DC-D9D8-4444-9A52-CCACE8E4E681}" name="Creation Date" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{70AFFBC7-48ED-47C2-86BD-B628DBFD9573}" name="Response Date" dataDxfId="11"/>
-    <tableColumn id="32" xr3:uid="{391127FF-4EC3-4F0E-B9DB-94DBB5579100}" name="Survey" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{5E8CA1DC-D9D8-4444-9A52-CCACE8E4E681}" name="Creation Date" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{70AFFBC7-48ED-47C2-86BD-B628DBFD9573}" name="Response Date" dataDxfId="8"/>
+    <tableColumn id="32" xr3:uid="{391127FF-4EC3-4F0E-B9DB-94DBB5579100}" name="Survey" dataDxfId="7">
       <calculatedColumnFormula>IF(E2 = 100, "Promoter", IF(E2 = -100, "Detractor", "Passive"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{17007E31-0D29-4A5F-ADC2-EDF07F2EDCE4}" name="Net Promoter Score" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{17007E31-0D29-4A5F-ADC2-EDF07F2EDCE4}" name="Net Promoter Score" dataDxfId="6">
       <calculatedColumnFormula>IF(F2&gt;8, 100, IF(F2 &lt; 7, -100, 0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B2BD18C1-1483-4A4E-A71A-2085603F0884}" name="Likelihood to Recommend"/>
-    <tableColumn id="6" xr3:uid="{AFAAB255-CBA0-4993-BB94-9C412B6182DA}" name="Ticket Solved Date" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{AFAAB255-CBA0-4993-BB94-9C412B6182DA}" name="Ticket Solved Date" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{694F7067-9A19-43BB-AE80-0AC0855DFC3B}" name="Language"/>
     <tableColumn id="8" xr3:uid="{75CD3E39-9CE4-4ACD-993C-BB3D5758C504}" name="Brand"/>
     <tableColumn id="9" xr3:uid="{4D94F4E6-A379-4A98-ACCC-B0C84D0D7B26}" name="Contact Method"/>
@@ -11127,10 +18370,10 @@
     <tableColumn id="11" xr3:uid="{F359EEEA-0375-47B3-884F-5EF30EEB7940}" name="FCR"/>
     <tableColumn id="12" xr3:uid="{0995A34B-B2E0-41BC-B0B8-F517A950F2A4}" name="Ticket Handling Time"/>
     <tableColumn id="13" xr3:uid="{650C1B80-4714-4F04-88B7-8B472972ACDF}" name="Full Resolution Time" dataDxfId="4"/>
-    <tableColumn id="38" xr3:uid="{4BD414DC-7471-4368-B615-67C60F99BE22}" name="FRT Is Outlier? " dataDxfId="2">
+    <tableColumn id="38" xr3:uid="{4BD414DC-7471-4368-B615-67C60F99BE22}" name="FRT Is Outlier? " dataDxfId="3">
       <calculatedColumnFormula>IF(OR(survey_data[[#This Row],[Full Resolution Time]]&gt;$AK$4, survey_data[[#This Row],[Full Resolution Time]] &lt; survey_data[[#This Row],[Lower Bound]]), "Outlier", "Normal")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{2486A7EA-F2F3-40F2-9D1B-A28F6419D642}" name="Lower Bound" dataDxfId="3">
+    <tableColumn id="39" xr3:uid="{2486A7EA-F2F3-40F2-9D1B-A28F6419D642}" name="Lower Bound" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.QUARTILE.INC(survey_data[Full Resolution Time], 1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{3D75DFC5-DCBA-4433-BA1B-D1B6D2B728FD}" name="Satisfaction with the overall support experience (CSAT)"/>
@@ -11145,11 +18388,11 @@
     <tableColumn id="23" xr3:uid="{6CFEEA6F-C35D-43BF-90D1-0D2639940AA5}" name="Inquiry Resolved"/>
     <tableColumn id="24" xr3:uid="{FDBBD7C4-AB2E-4007-BC66-657209CEA5F1}" name="Agent Alias"/>
     <tableColumn id="25" xr3:uid="{6A4D41F8-9A87-4FAD-BF49-B03EDB346D88}" name="Agent Start Date"/>
-    <tableColumn id="26" xr3:uid="{CB19F469-FF18-484F-9C3B-F5600DD5AF96}" name="Clean Agent Start Date " dataDxfId="8">
+    <tableColumn id="26" xr3:uid="{CB19F469-FF18-484F-9C3B-F5600DD5AF96}" name="Clean Agent Start Date " dataDxfId="1">
       <calculatedColumnFormula>TRIM(TEXT(AB2, "dd-mmm-yyyy"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="27" xr3:uid="{64F38992-DE14-4B47-BC8E-92837C72F625}" name="Agent Type"/>
-    <tableColumn id="37" xr3:uid="{9866B5E0-F05E-4B79-9E73-CC6C72CEE18B}" name="Location Name " dataDxfId="5"/>
+    <tableColumn id="37" xr3:uid="{9866B5E0-F05E-4B79-9E73-CC6C72CEE18B}" name="Location Name " dataDxfId="0"/>
     <tableColumn id="29" xr3:uid="{A4D95972-B321-41DE-8249-2D9A739BFE4A}" name="Solved Status"/>
     <tableColumn id="30" xr3:uid="{57B997F5-923D-44B5-B255-6A12D7ACF5C9}" name="Facebook Survey Type"/>
     <tableColumn id="31" xr3:uid="{A4A243E1-682F-456C-B3E1-FD6B1E4FA6FC}" name="Resolution Tag"/>
@@ -11480,6 +18723,8 @@
     <pivotTable tabId="7" name="PivotTable17"/>
     <pivotTable tabId="7" name="PivotTable18"/>
     <pivotTable tabId="7" name="PivotTable19"/>
+    <pivotTable tabId="7" name="PivotTable1"/>
+    <pivotTable tabId="7" name="PivotTable3"/>
   </pivotTables>
   <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="709699232" filterType="unknown">
     <bounds startDate="2026-01-01T00:44:43" endDate="2027-01-01T09:48:29"/>
@@ -20729,8 +27974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C1B80-38A3-46F3-ACD5-0F2C2D6620EE}">
   <dimension ref="A1:AK103"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32020,19 +39265,1155 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB99F8C-E465-4133-8F16-BA5549753289}">
-  <dimension ref="A2:D50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62506F8A-921C-436C-A6D3-05F50583725F}">
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="A1:A1048576 D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>12935</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2">
+        <f>STANDARDIZE(B2,AVERAGE($B$2:$B$74),_xlfn.STDEV.P($B$2:$B$74))</f>
+        <v>0.66541975307387402</v>
+      </c>
+      <c r="F2">
+        <f>CORREL(A2:A74, B2:B74)</f>
+        <v>-0.16774605225532296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>12042</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">STANDARDIZE(B3,AVERAGE($B$2:$B$74),_xlfn.STDEV.P($B$2:$B$74))</f>
+        <v>0.55066240440236569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1896</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-0.75317640816328102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>736</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-0.90224530453388518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>7112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-8.2880405172702121E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>9970</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.28439451364383822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>23336</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.0020280213071966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1490</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-0.8053505218929925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>7359</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-5.1139010859306222E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>24271</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.1221826920886748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>7784</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3.476748586820318E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>24625</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2.167674407015566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-0.9869318585927026</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-0.98461872054557253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>182</v>
+      </c>
+      <c r="C16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.97343855331777718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>1005</v>
+      </c>
+      <c r="C17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-0.86767674149621921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>9006</v>
+      </c>
+      <c r="C18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.16051312045309474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>13271</v>
+      </c>
+      <c r="C19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.70859832995363514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>17793</v>
+      </c>
+      <c r="C20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.2897100104604216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>5312</v>
+      </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-0.31419420988570862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>155</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-0.97690826038847234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>292</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-0.95930270969642684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>8172</v>
+      </c>
+      <c r="C24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>5.3337724269401726E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-0.98564678189985255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>2791</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-0.63816204415320277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-0.98603230490770755</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>10120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.30367066403658877</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>8778</v>
+      </c>
+      <c r="C29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.13121337185611393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>-0.98281961317558253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>13309</v>
+      </c>
+      <c r="C31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.71348162138646531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>7495</v>
+      </c>
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-3.3661967836545729E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>581</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-0.92216399327306076</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>27576</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>2.5469005390756121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>1861</v>
+      </c>
+      <c r="C35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>-0.75767417658825609</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>3091</v>
+      </c>
+      <c r="C36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>-0.59960974336770168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>-0.98461872054557253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>-0.98127752114416245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>573</v>
+      </c>
+      <c r="C39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>-0.92319205462734077</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>19160</v>
+      </c>
+      <c r="C40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>1.4653799943730215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>9473</v>
+      </c>
+      <c r="C41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.22052620200919143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>13275</v>
+      </c>
+      <c r="C42" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.70911236063077521</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>8654</v>
+      </c>
+      <c r="C43" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.11527842086477347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>1183</v>
+      </c>
+      <c r="C44" t="s">
+        <v>226</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>-0.84480237636348865</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>333</v>
+      </c>
+      <c r="C45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>-0.95403389525574167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>13109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.68778008752946462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>-0.98487573588414257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>13110</v>
+      </c>
+      <c r="C48" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0.68790859519874958</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>1676</v>
+      </c>
+      <c r="C49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>-0.78144809540598181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>2264</v>
+      </c>
+      <c r="C50" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>-0.70588558586639971</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>15541</v>
+      </c>
+      <c r="C51" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1.0003107392305934</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>17886</v>
+      </c>
+      <c r="C52" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1.3016612237039269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>-0.98718887393127264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>14108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0.81615924914518323</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>14743</v>
+      </c>
+      <c r="C55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0.89776161914116048</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>-0.98718887393127264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>13804</v>
+      </c>
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0.77709291768254207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <v>1419</v>
+      </c>
+      <c r="C58" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>-0.81447456641222771</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>6434</v>
+      </c>
+      <c r="C59" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>-0.17000860494793457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>28756</v>
+      </c>
+      <c r="C60" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>2.6985395888319164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>13416</v>
+      </c>
+      <c r="C61" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0.72723194199996077</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>19597</v>
+      </c>
+      <c r="C62" t="s">
+        <v>226</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>1.5215378458505679</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>1455</v>
+      </c>
+      <c r="C63" t="s">
+        <v>226</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>-0.80984829031796757</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>359</v>
+      </c>
+      <c r="C64" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>-0.95069269585433158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>910</v>
+      </c>
+      <c r="C65" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>-0.87988497007829458</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>1190</v>
+      </c>
+      <c r="C66" t="s">
+        <v>226</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>-0.84390282267849359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>6172</v>
+      </c>
+      <c r="C67" t="s">
+        <v>226</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D74" si="1">STANDARDIZE(B67,AVERAGE($B$2:$B$74),_xlfn.STDEV.P($B$2:$B$74))</f>
+        <v>-0.20367761430060552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>15022</v>
+      </c>
+      <c r="C68" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>0.93361525887167651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>126</v>
+      </c>
+      <c r="C69" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>-0.98063498279773742</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>20321</v>
+      </c>
+      <c r="C70" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>1.6145773984129106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>4382</v>
+      </c>
+      <c r="C71" t="s">
+        <v>226</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>-0.43370634232076199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>8697</v>
+      </c>
+      <c r="C72" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>0.12080425064402862</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>13591</v>
+      </c>
+      <c r="C73" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>0.74972078412483634</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>261</v>
+      </c>
+      <c r="C74" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>-0.96328644744426195</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D74" xr:uid="{62506F8A-921C-436C-A6D3-05F50583725F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB99F8C-E465-4133-8F16-BA5549753289}">
+  <dimension ref="A2:D74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -32522,7 +40903,7 @@
       <c r="B48" s="7">
         <v>5215.666666666667</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>39.583333333333336</v>
       </c>
     </row>
@@ -32533,7 +40914,7 @@
       <c r="B49" s="7">
         <v>8637.2407407407409</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>38.888888888888886</v>
       </c>
     </row>
@@ -32544,8 +40925,168 @@
       <c r="B50" s="7">
         <v>7027.088235294118</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>39.215686274509807</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="7">
+        <v>20845.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="7">
+        <v>10724.190476190477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="7">
+        <v>5647.9444444444443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="7">
+        <v>969.5454545454545</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="7">
+        <v>7027.088235294118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="7">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="7">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="7">
+        <v>3837.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="7">
+        <v>3893.5384615384614</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="7">
+        <v>4791.666666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="7">
+        <v>5968.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="7">
+        <v>7206.416666666667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7">
+        <v>7418.5555555555557</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="7">
+        <v>7646.166666666667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="7">
+        <v>18843.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="7">
+        <v>18893.166666666668</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="7">
+        <v>7027.088235294118</v>
       </c>
     </row>
   </sheetData>
@@ -32553,16 +41094,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A9D416-AF2A-4BD0-ACDB-0AF5B0630039}">
-  <dimension ref="A1"/>
+  <dimension ref="L48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="48" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L48" s="10"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>

--- a/customerSurveyResult.xlsx
+++ b/customerSurveyResult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johncaballero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77697704-911E-42FC-B21C-D0D25D416ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16B3DEE-2E4A-40EE-AEC8-5A7E7EBF59CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{70A7E47D-1E1C-44C5-89A3-27F4D14B60F6}"/>
+    <workbookView xWindow="28680" yWindow="1620" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{70A7E47D-1E1C-44C5-89A3-27F4D14B60F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -12461,15 +12461,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>294527</xdr:colOff>
+      <xdr:colOff>297702</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>47999</xdr:rowOff>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12484,8 +12484,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="294527" y="8426824"/>
-          <a:ext cx="5756649" cy="1661646"/>
+          <a:off x="297702" y="8313964"/>
+          <a:ext cx="8274798" cy="1636860"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -12522,21 +12522,57 @@
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>1.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Site 1 outperforms site 2 by 0.7 points in NPS driven largely by superior WhatsApp Handling. </a:t>
+            <a:t> </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>While Site 1 and Site 2 have comparable NPS (39.58 vs 38.89), Site 2 handles a higher volume of surveys (54 vs 48) but shows significantly higher FRT levels, suggesting a need to scale Site 1’s efficiency workflows to Site 2.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>WhatsApp is currently the highest-performing channel, achieving the lowest Full Resolution Time (FRT) of 970 while simultaneously driving superior NPS results at Site 1.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Experience Usage" and "Meta Account" issues are major detractors, as they represent the highest FRT per Driver—both exceeding 18,000—indicating these complex issues significantly delay resolution for customers.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -41098,8 +41134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A9D416-AF2A-4BD0-ACDB-0AF5B0630039}">
   <dimension ref="L48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T60" sqref="T60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/customerSurveyResult.xlsx
+++ b/customerSurveyResult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johncaballero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16B3DEE-2E4A-40EE-AEC8-5A7E7EBF59CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F55F4F5-6922-4900-8509-3140D1D84983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1620" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{70A7E47D-1E1C-44C5-89A3-27F4D14B60F6}"/>
   </bookViews>
@@ -41134,8 +41134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A9D416-AF2A-4BD0-ACDB-0AF5B0630039}">
   <dimension ref="L48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T60" sqref="T60"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
